--- a/data/trans_camb/P16A11-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Dificultad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A11-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.082931647194162</v>
+        <v>-7.961075170929807</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.100345795818178</v>
+        <v>-9.446169463071033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.76328942449559</v>
+        <v>-6.727003791663429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.76175298875648</v>
+        <v>-4.661024932122096</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.465419749882468</v>
+        <v>-7.403320222836355</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1287790535456373</v>
+        <v>-0.09023119376531326</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.610489039439655</v>
+        <v>-5.584329582659336</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.533130750360844</v>
+        <v>-7.69950256590042</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.94945319472186</v>
+        <v>-1.980454723405827</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02359305328055514</v>
+        <v>0.02968479631849472</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.595035399625162</v>
+        <v>-1.571890701443299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.429345566209071</v>
+        <v>2.718839280431453</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.597236797480789</v>
+        <v>2.765513093676359</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.211688907623126</v>
+        <v>0.001459694615647239</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.072565869425567</v>
+        <v>8.194508619459393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.2697002885317445</v>
+        <v>-0.01861892965888772</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.162157796014955</v>
+        <v>-2.163296458723378</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.026461811168732</v>
+        <v>4.389927378798155</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3700919212305388</v>
+        <v>-0.3664596795862555</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4169503327364437</v>
+        <v>-0.4218705536787343</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3097185688333406</v>
+        <v>-0.2982304684331133</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1838066685128766</v>
+        <v>-0.182655274859843</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2908163228901554</v>
+        <v>-0.2832625871343407</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.004334619904569815</v>
+        <v>-0.0040304741762807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2358813019059836</v>
+        <v>-0.2344642580929985</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3198277669427881</v>
+        <v>-0.3206804282082688</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08125186368371597</v>
+        <v>-0.08485188618802934</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0002656713289492182</v>
+        <v>0.004212277010147715</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.09392590622609236</v>
+        <v>-0.09614357663043051</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1431704720195636</v>
+        <v>0.1664742355978552</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1228246194905942</v>
+        <v>0.1309492321249467</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01081370802570092</v>
+        <v>0.009222584945353716</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3630410006545683</v>
+        <v>0.3723808363208332</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.01217780876806543</v>
+        <v>0.002753540691209641</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.108053385473403</v>
+        <v>-0.10212234374604</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1926492858063016</v>
+        <v>0.2134737879624386</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.794137482797234</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.091609220473232</v>
+        <v>6.091609220473226</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.914352283014683</v>
+        <v>3.149704000897453</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.112551472810422</v>
+        <v>-0.06730048646604933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.821917330054168</v>
+        <v>3.16108226597739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.696360138783441</v>
+        <v>1.557074402681871</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.685971036487175</v>
+        <v>-2.612985159242653</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.812997797606783</v>
+        <v>2.854630581916592</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.488938195497118</v>
+        <v>3.632058729707614</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3251075234319335</v>
+        <v>-0.2921593345407497</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.006137545143218</v>
+        <v>4.008611190981633</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.090542207882065</v>
+        <v>9.569058254276067</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.816290391820286</v>
+        <v>5.947869711628025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.001521636280014</v>
+        <v>9.422641303002191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.387937059683692</v>
+        <v>8.181244566109148</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.895131555302659</v>
+        <v>3.832494525058133</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.538094843006135</v>
+        <v>8.752240261168366</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.911370223504122</v>
+        <v>8.140911409371894</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.991175094647823</v>
+        <v>4.021098063092043</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.066227614621816</v>
+        <v>8.178397979378914</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1315390979262617</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.446612809477157</v>
+        <v>0.4466128094771566</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2292495014938574</v>
+        <v>0.2283512648349309</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.009963346602787547</v>
+        <v>-0.01190396963632055</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2232363689846521</v>
+        <v>0.2325068561147823</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09750012327254176</v>
+        <v>0.08311617617167957</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1561166287508488</v>
+        <v>-0.1525037597413312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1582064446790374</v>
+        <v>0.1661282040413741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2389192327322428</v>
+        <v>0.2425564808438482</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02219441728679867</v>
+        <v>-0.01943402220696535</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2743594373586942</v>
+        <v>0.2743761029667884</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8822991595311209</v>
+        <v>0.9178703608417808</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5776440697798255</v>
+        <v>0.5704152568755912</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8595787184454355</v>
+        <v>0.8829826968266831</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5821620752101423</v>
+        <v>0.5726948525078965</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2725939465546551</v>
+        <v>0.2650765283587828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6056388911821097</v>
+        <v>0.626816493913492</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6134479881210729</v>
+        <v>0.6564578687646557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3167533612846751</v>
+        <v>0.3120488456453082</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6394999669305562</v>
+        <v>0.6593858424375816</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.394735684768823</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.900458601933535</v>
+        <v>8.900458601933533</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.137212124319573</v>
@@ -1083,7 +1083,7 @@
         <v>4.351724175037239</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.128654948543129</v>
+        <v>5.128654948543132</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.078145054816138</v>
@@ -1092,7 +1092,7 @@
         <v>4.392827510484806</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.056036999424461</v>
+        <v>7.056036999424464</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.875039238165928</v>
+        <v>2.673140930583188</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.603179698092305</v>
+        <v>1.267041005205549</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.798922914143861</v>
+        <v>5.990097724075814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.434854394746595</v>
+        <v>4.499433074909909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8757275192910166</v>
+        <v>0.6936401247754727</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.319044044812498</v>
+        <v>2.421852805156295</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.642732607326429</v>
+        <v>4.480036075320568</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.803638650973065</v>
+        <v>1.986689104632234</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.886312789793164</v>
+        <v>5.060829283985097</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.982836339248694</v>
+        <v>9.219442024320395</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.627430714174572</v>
+        <v>7.440522820547455</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.90614266206222</v>
+        <v>12.0064121777589</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.59614927237516</v>
+        <v>11.48082578205555</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.162125406914409</v>
+        <v>7.811777690931963</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.824827636672997</v>
+        <v>8.116658610135824</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.453295790012586</v>
+        <v>9.53568000721207</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.554253293505004</v>
+        <v>6.989093630238502</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.170223551904192</v>
+        <v>9.139950527260769</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3813345843756932</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7722996159892893</v>
+        <v>0.7722996159892891</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6292420247199457</v>
@@ -1188,7 +1188,7 @@
         <v>0.3365142371967034</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3965934738589724</v>
+        <v>0.3965934738589726</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5808396446294457</v>
@@ -1197,7 +1197,7 @@
         <v>0.3604798079649876</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5790254355481538</v>
+        <v>0.579025435548154</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2253737106120921</v>
+        <v>0.1999738851586599</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1241652011545794</v>
+        <v>0.09313034809192217</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4444219236365617</v>
+        <v>0.4658021494327871</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2982124445698067</v>
+        <v>0.308570854765737</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05368422271669704</v>
+        <v>0.04243118947555553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1540159515803395</v>
+        <v>0.1743286005106209</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3529543269574597</v>
+        <v>0.3301801571882034</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1343883523765358</v>
+        <v>0.1565127830607503</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3638518917813113</v>
+        <v>0.3782794454349115</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8825620778900635</v>
+        <v>0.8923079186818577</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7521712856629381</v>
+        <v>0.7280666026776975</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.192403580878602</v>
+        <v>1.178431329871124</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.011145041067486</v>
+        <v>0.9879515099976328</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6917652634068996</v>
+        <v>0.6650745428215403</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6841814471863027</v>
+        <v>0.7332305946198596</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8307930732123481</v>
+        <v>0.8390349933211413</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5728689463070935</v>
+        <v>0.6285913642048225</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8296994066173705</v>
+        <v>0.8232803179218945</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>5.924485915175591</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.689443835142081</v>
+        <v>8.689443835142079</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.949199382237722</v>
+        <v>1.747491955398063</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.636861836704746</v>
+        <v>2.649447875776157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.731557784112758</v>
+        <v>7.009145586596015</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5835313838167251</v>
+        <v>0.235274849093404</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5173533678977498</v>
+        <v>-0.02878985730118195</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.608455178613412</v>
+        <v>2.832294341134776</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.287422995448424</v>
+        <v>2.482552958731227</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.632257261680153</v>
+        <v>2.800240205760673</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.936184824197306</v>
+        <v>6.02050139924402</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.57617328899061</v>
+        <v>10.14113467939446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.13394221884221</v>
+        <v>10.86854221762666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.14678052606866</v>
+        <v>13.86132086366846</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.42081535230531</v>
+        <v>9.944124469192513</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.178236697638448</v>
+        <v>9.415540570019076</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.32609803361239</v>
+        <v>10.1527969470629</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.718760540954886</v>
+        <v>8.91249135152963</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.9338892546885</v>
+        <v>9.386491493632541</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.07681581433716</v>
+        <v>11.25615462449566</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.6194699214133362</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9085765696383677</v>
+        <v>0.9085765696383674</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.179509370833678</v>
+        <v>0.1623005467904167</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2342410959327512</v>
+        <v>0.2400751283047019</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6028215210854633</v>
+        <v>0.6318404342436925</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02698542585501989</v>
+        <v>0.01794262820889013</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05299508399356576</v>
+        <v>-0.005939288678130919</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1865405895960255</v>
+        <v>0.1906780229385279</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2195639884303749</v>
+        <v>0.2202733050397951</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2397162345546052</v>
+        <v>0.2464375201785791</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5198954480170725</v>
+        <v>0.5130807858213857</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.54548403774136</v>
+        <v>1.427238115139121</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.50885026125631</v>
+        <v>1.581859332769129</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.104003178694114</v>
+        <v>1.9674146954763</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.249877736720386</v>
+        <v>1.214958856392645</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.158206316736795</v>
+        <v>1.177241232512874</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.344497752967007</v>
+        <v>1.29354654613796</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.093838166618307</v>
+        <v>1.112947629071923</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.098523899179983</v>
+        <v>1.192559295053535</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.389922761859266</v>
+        <v>1.469186603032397</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.248634881770767</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.323049628855274</v>
+        <v>6.323049628855271</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.213447709571056</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.110524842819359</v>
+        <v>2.021459086957322</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.595674516753652</v>
+        <v>0.4176902227681768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.738369405486345</v>
+        <v>4.728208577970145</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.209618269779573</v>
+        <v>2.283814417191635</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.801179411977905</v>
+        <v>-0.7792193731550464</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.223947704642387</v>
+        <v>2.190094155355568</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.759524248532907</v>
+        <v>2.747908948432505</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4326586694774841</v>
+        <v>0.4153948466794742</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.902428413579095</v>
+        <v>3.929516890776889</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.695019333170483</v>
+        <v>5.652973042134729</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.915541965089123</v>
+        <v>3.943799879792754</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.910043585226608</v>
+        <v>8.011760022358354</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.030631545324243</v>
+        <v>6.123077768898879</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.000790261371905</v>
+        <v>2.922963598928086</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.520399766772408</v>
+        <v>5.438935833781355</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.346797364653966</v>
+        <v>5.444939877202117</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.951105620622538</v>
+        <v>3.122974947108829</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.332724077925257</v>
+        <v>6.244321380763791</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1783406745088952</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5014851209971695</v>
+        <v>0.5014851209971692</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2537206577026867</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1508092792506805</v>
+        <v>0.1479759494775027</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0460222530930028</v>
+        <v>0.03173105586447936</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3585827107572827</v>
+        <v>0.3463816818917919</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1292163730060303</v>
+        <v>0.1287688149805539</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04537440272166949</v>
+        <v>-0.04415604615962237</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1231934163907919</v>
+        <v>0.1234125405241479</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1814954264711582</v>
+        <v>0.1798079698612544</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02894684272557661</v>
+        <v>0.02649452051199743</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2529818173387521</v>
+        <v>0.2556885174401154</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4790478130915097</v>
+        <v>0.4788603356275026</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3345928746199697</v>
+        <v>0.3393892135934008</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6774282780930693</v>
+        <v>0.6774132244823453</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3905545107382374</v>
+        <v>0.3937455213606929</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1927896231308764</v>
+        <v>0.1875492314195715</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3483140963929221</v>
+        <v>0.3496312300140557</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3817668719348554</v>
+        <v>0.3907353790123277</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2104043395598807</v>
+        <v>0.2234544683354826</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4494605957890828</v>
+        <v>0.4477331902975726</v>
       </c>
     </row>
     <row r="34">
